--- a/Test-计算机组成原理.xlsx
+++ b/Test-计算机组成原理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\PyCharm\workspace\exam-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5057A78-9E94-479B-9384-31FEED8BA931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E3D832-C977-40AB-BE2E-DDA24E725212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
   </bookViews>
   <sheets>
     <sheet name="单项选择题" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,67 +68,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Option-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option-B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option-D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是多项选择题1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是多项选择题2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是多项选择题3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断题1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断题2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断题3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断题4</t>
-  </si>
-  <si>
-    <t>判断题5</t>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我是多项选择题4</t>
-  </si>
-  <si>
     <t>BCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +249,21 @@
   <si>
     <t>中断控制-DMA标准答案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时序电路用来产生各种时序信号，以保证整个计算机协调地工作。</t>
+  </si>
+  <si>
+    <t>引入虚拟存储系统的目的是提高存储速度。</t>
+  </si>
+  <si>
+    <t>一个更高级的中断请求一定可以中断另一个中断处理程序的执行。</t>
+  </si>
+  <si>
+    <t>存储单元是存放一个二进制信息的存贮元。</t>
+  </si>
+  <si>
+    <t>用微指令的分段译码法设计微指令时，需将具有相斥性的微命令组合在同一字段内。</t>
   </si>
 </sst>
 </file>
@@ -677,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A2D115-BB32-49B2-A3DD-40659F06ED1A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -712,19 +678,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -735,19 +701,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -758,7 +724,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>21</v>
@@ -781,19 +747,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -804,19 +770,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
@@ -827,22 +793,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
@@ -850,19 +816,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
@@ -873,22 +839,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
@@ -896,22 +862,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -919,22 +885,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
@@ -966,7 +932,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -999,20 +965,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -1022,43 +988,43 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1068,23 +1034,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -1102,7 +1068,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1124,10 +1090,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1135,10 +1101,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1146,10 +1112,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1157,10 +1123,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1168,10 +1134,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1187,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1B417-D2C5-4AC5-841D-6EEEB28A6F7F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1212,10 +1178,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1223,10 +1189,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
